--- a/data/Data Produk.xlsx
+++ b/data/Data Produk.xlsx
@@ -2,30 +2,41 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PROJECT\RPA\SoftwareIntegrationEcommerce\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83E91CE2-4D80-4D06-9684-7D1415B183FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A32B594-9EB8-4748-92CA-83B75F9BE005}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{0DD45C04-94DB-4AB4-802F-C4CF8B78AA74}"/>
   </bookViews>
   <sheets>
-    <sheet name="Shopee" sheetId="2" r:id="rId1"/>
+    <sheet name="Data" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="94">
   <si>
     <t>Foto Produk</t>
   </si>
@@ -42,34 +53,133 @@
     <t>Merek</t>
   </si>
   <si>
+    <t>Variasi</t>
+  </si>
+  <si>
+    <t>Jumlah Pilihan</t>
+  </si>
+  <si>
+    <t>Jumlah Harga</t>
+  </si>
+  <si>
+    <t>Jumlah Stok</t>
+  </si>
+  <si>
+    <t>Pilihan 1</t>
+  </si>
+  <si>
+    <t>Pilihan 2</t>
+  </si>
+  <si>
+    <t>Pilihan 3</t>
+  </si>
+  <si>
+    <t>Pilihan 4</t>
+  </si>
+  <si>
+    <t>Pilihan 5</t>
+  </si>
+  <si>
+    <t>Pilihan 6</t>
+  </si>
+  <si>
+    <t>Pilihan 7</t>
+  </si>
+  <si>
+    <t>Harga 1</t>
+  </si>
+  <si>
+    <t>Harga 2</t>
+  </si>
+  <si>
+    <t>Harga 3</t>
+  </si>
+  <si>
+    <t>Harga 4</t>
+  </si>
+  <si>
+    <t>Harga 5</t>
+  </si>
+  <si>
+    <t>Harga 6</t>
+  </si>
+  <si>
+    <t>Harga 7</t>
+  </si>
+  <si>
+    <t>Stok 1</t>
+  </si>
+  <si>
+    <t>Stok 2</t>
+  </si>
+  <si>
+    <t>Stok 3</t>
+  </si>
+  <si>
+    <t>Stok 4</t>
+  </si>
+  <si>
+    <t>Stok 5</t>
+  </si>
+  <si>
+    <t>Stok 6</t>
+  </si>
+  <si>
+    <t>Stok 7</t>
+  </si>
+  <si>
     <t>Berat</t>
   </si>
   <si>
     <t>Ongkos Kirim</t>
   </si>
   <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>D:\PROJECT\RPA\SoftwareIntegrationEcommerce\data\Produk\poster blackpink</t>
+  </si>
+  <si>
+    <t>Jual Poster Blackpink all Member Full Print. Bahan ac260 Finishing : laminasi glossy 2 sisi depan belakang Hasil mengkilap, anti air</t>
+  </si>
+  <si>
+    <t>Tanpa Merek</t>
+  </si>
+  <si>
+    <t>Pilih Variasi</t>
+  </si>
+  <si>
+    <t>bp-1</t>
+  </si>
+  <si>
+    <t>bp-2</t>
+  </si>
+  <si>
+    <t>bp-3</t>
+  </si>
+  <si>
+    <t>bp-4</t>
+  </si>
+  <si>
+    <t>bp-5</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
     <t>Hemat Rp.0</t>
   </si>
   <si>
-    <t>Tanpa Merek</t>
-  </si>
-  <si>
-    <t>Jual Poster Blackpink all Member Full Print. Bahan ac260 Finishing : laminasi glossy 2 sisi depan belakang Hasil mengkilap, anti air</t>
-  </si>
-  <si>
-    <t>Pilih Variasi</t>
-  </si>
-  <si>
-    <t>bp-1</t>
-  </si>
-  <si>
-    <t>bp-2</t>
-  </si>
-  <si>
-    <t>bp-3</t>
-  </si>
-  <si>
-    <t>bp-4</t>
+    <t>Update Data Success</t>
+  </si>
+  <si>
+    <t>D:\PROJECT\RPA\SoftwareIntegrationEcommerce\data\Produk\poster rose</t>
+  </si>
+  <si>
+    <t>Jual Poster Blackpink all Member Karakter Rose Full Print A4</t>
+  </si>
+  <si>
+    <t>Jual Poster Blackpink all Member Karakter Rose Full Print. Bahan ac260 Finishing : laminasi glossy 2 sisi depan belakang Hasil mengkilap, anti air</t>
   </si>
   <si>
     <t>rose-1</t>
@@ -84,27 +194,42 @@
     <t>rose-4</t>
   </si>
   <si>
-    <t>Jual Poster Blackpink all Member Karakter Rose Full Print. Bahan ac260 Finishing : laminasi glossy 2 sisi depan belakang Hasil mengkilap, anti air</t>
+    <t>Update</t>
+  </si>
+  <si>
+    <t>D:\PROJECT\RPA\SoftwareIntegrationEcommerce\data\Produk\poster jennie</t>
+  </si>
+  <si>
+    <t>Jual Poster Blackpink all Member Karakter Jennie Full Print A4</t>
   </si>
   <si>
     <t>Jual Poster Blackpink all Member Karakter Jennie Full Print. Bahan ac260 Finishing : laminasi glossy 2 sisi depan belakang Hasil mengkilap, anti air</t>
   </si>
   <si>
+    <t>Jennie-1</t>
+  </si>
+  <si>
+    <t>Jennie-2</t>
+  </si>
+  <si>
+    <t>Jennie-3</t>
+  </si>
+  <si>
+    <t>Jennie-4</t>
+  </si>
+  <si>
+    <t>Add</t>
+  </si>
+  <si>
+    <t>D:\PROJECT\RPA\SoftwareIntegrationEcommerce\data\Produk\poster jisoo</t>
+  </si>
+  <si>
+    <t>Jual Poster Blackpink all Member Karakter Jisoo Full Print</t>
+  </si>
+  <si>
     <t>Jual Poster Blackpink all Member Karakter Jisoo Full Print. Bahan ac260 Finishing : laminasi glossy 2 sisi depan belakang Hasil mengkilap, anti air</t>
   </si>
   <si>
-    <t>Jennie-1</t>
-  </si>
-  <si>
-    <t>Jennie-2</t>
-  </si>
-  <si>
-    <t>Jennie-3</t>
-  </si>
-  <si>
-    <t>Jennie-4</t>
-  </si>
-  <si>
     <t>jisoo-1</t>
   </si>
   <si>
@@ -117,6 +242,12 @@
     <t>jisoo-4</t>
   </si>
   <si>
+    <t>D:\PROJECT\RPA\SoftwareIntegrationEcommerce\data\Produk\poster lisa</t>
+  </si>
+  <si>
+    <t>Jual Poster Blackpink all Member Karakter Lisa Full Print</t>
+  </si>
+  <si>
     <t>Jual Poster Blackpink all Member Karakter Lisa Full Print. Bahan ac260 Finishing : laminasi glossy 2 sisi depan belakang Hasil mengkilap, anti air</t>
   </si>
   <si>
@@ -132,148 +263,61 @@
     <t>Lisa-4</t>
   </si>
   <si>
+    <t>D:\PROJECT\RPA\SoftwareIntegrationEcommerce\data\Produk\poster space</t>
+  </si>
+  <si>
+    <t>Jual Poster Kartun Space Karakter Full Print</t>
+  </si>
+  <si>
     <t>Jual Poster Kartun Space Karakter Full Print. Bahan ac260 Finishing : laminasi glossy 2 sisi depan belakang Hasil mengkilap, anti air</t>
   </si>
   <si>
+    <t>spc-1</t>
+  </si>
+  <si>
+    <t>spc-2</t>
+  </si>
+  <si>
+    <t>spc-3</t>
+  </si>
+  <si>
+    <t>D:\PROJECT\RPA\SoftwareIntegrationEcommerce\data\Produk\poster spiderman</t>
+  </si>
+  <si>
+    <t>Jual Poster Kartun Spiderman Karakter Full Print</t>
+  </si>
+  <si>
     <t>Jual Poster Kartun Spiderman Karakter Full Print. Bahan ac260 Finishing : laminasi glossy 2 sisi depan belakang Hasil mengkilap, anti air</t>
   </si>
   <si>
+    <t>spd-1</t>
+  </si>
+  <si>
+    <t>spd-2</t>
+  </si>
+  <si>
+    <t>spd-3</t>
+  </si>
+  <si>
+    <t>D:\PROJECT\RPA\SoftwareIntegrationEcommerce\data\Produk\Poster spongebob</t>
+  </si>
+  <si>
+    <t>Jual Poster Kartun Spongebob Karakter Full Print</t>
+  </si>
+  <si>
     <t>Jual Poster Kartun Spongebob Karakter Full Print. Bahan ac260 Finishing : laminasi glossy 2 sisi depan belakang Hasil mengkilap, anti air</t>
   </si>
   <si>
-    <t>spc-1</t>
-  </si>
-  <si>
-    <t>spd-1</t>
-  </si>
-  <si>
     <t>spb-1</t>
   </si>
   <si>
-    <t>spc-2</t>
-  </si>
-  <si>
-    <t>spc-3</t>
-  </si>
-  <si>
-    <t>spd-2</t>
-  </si>
-  <si>
-    <t>spd-3</t>
-  </si>
-  <si>
     <t>spb-2</t>
   </si>
   <si>
     <t>spb-3</t>
   </si>
   <si>
-    <t>D:\PROJECT\RPA\SoftwareIntegrationEcommerce\data\Produk\poster blackpink</t>
-  </si>
-  <si>
-    <t>D:\PROJECT\RPA\SoftwareIntegrationEcommerce\data\Produk\poster jennie</t>
-  </si>
-  <si>
-    <t>D:\PROJECT\RPA\SoftwareIntegrationEcommerce\data\Produk\poster jisoo</t>
-  </si>
-  <si>
-    <t>D:\PROJECT\RPA\SoftwareIntegrationEcommerce\data\Produk\poster lisa</t>
-  </si>
-  <si>
-    <t>D:\PROJECT\RPA\SoftwareIntegrationEcommerce\data\Produk\poster rose</t>
-  </si>
-  <si>
-    <t>D:\PROJECT\RPA\SoftwareIntegrationEcommerce\data\Produk\poster space</t>
-  </si>
-  <si>
-    <t>D:\PROJECT\RPA\SoftwareIntegrationEcommerce\data\Produk\poster spiderman</t>
-  </si>
-  <si>
-    <t>D:\PROJECT\RPA\SoftwareIntegrationEcommerce\data\Produk\Poster spongebob</t>
-  </si>
-  <si>
-    <t>Jumlah Harga</t>
-  </si>
-  <si>
-    <t>Jumlah Pilihan</t>
-  </si>
-  <si>
-    <t>Variasi</t>
-  </si>
-  <si>
-    <t>Jumlah Stok</t>
-  </si>
-  <si>
-    <t>Pilihan 1</t>
-  </si>
-  <si>
-    <t>Pilihan 2</t>
-  </si>
-  <si>
-    <t>Pilihan 3</t>
-  </si>
-  <si>
-    <t>Pilihan 4</t>
-  </si>
-  <si>
-    <t>Pilihan 5</t>
-  </si>
-  <si>
-    <t>Pilihan 6</t>
-  </si>
-  <si>
-    <t>Pilihan 7</t>
-  </si>
-  <si>
-    <t>Harga 1</t>
-  </si>
-  <si>
-    <t>Harga 2</t>
-  </si>
-  <si>
-    <t>Harga 3</t>
-  </si>
-  <si>
-    <t>Harga 4</t>
-  </si>
-  <si>
-    <t>Harga 5</t>
-  </si>
-  <si>
-    <t>Harga 6</t>
-  </si>
-  <si>
-    <t>Harga 7</t>
-  </si>
-  <si>
-    <t>Stok 1</t>
-  </si>
-  <si>
-    <t>Stok 2</t>
-  </si>
-  <si>
-    <t>Stok 3</t>
-  </si>
-  <si>
-    <t>Stok 4</t>
-  </si>
-  <si>
-    <t>Stok 5</t>
-  </si>
-  <si>
-    <t>Stok 6</t>
-  </si>
-  <si>
-    <t>Stok 7</t>
-  </si>
-  <si>
-    <t>Status</t>
-  </si>
-  <si>
-    <t>Add</t>
-  </si>
-  <si>
-    <t>bp-5</t>
+    <t>Jual Poster Blackpink all Member Karakter All in one Full Print A4</t>
   </si>
 </sst>
 </file>
@@ -713,11 +757,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8DD37BD-256C-43CC-8A0A-14309913C146}">
   <dimension ref="A1:AG30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="69" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="N3" sqref="N3"/>
+    <sheetView tabSelected="1" zoomScale="69" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="20.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="42.77734375" customWidth="1"/>
     <col min="2" max="2" width="61.77734375" customWidth="1"/>
@@ -725,10 +769,11 @@
     <col min="4" max="4" width="87.109375" customWidth="1"/>
     <col min="5" max="9" width="18" customWidth="1"/>
     <col min="10" max="13" width="10.5546875" customWidth="1"/>
+    <col min="14" max="30" width="9.44140625" customWidth="1"/>
     <col min="31" max="31" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:33" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -745,134 +790,136 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>57</v>
+        <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>56</v>
+        <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>55</v>
+        <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>58</v>
+        <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>59</v>
+        <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>61</v>
+        <v>11</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>62</v>
+        <v>12</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>63</v>
+        <v>13</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>64</v>
+        <v>14</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>65</v>
+        <v>15</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>66</v>
+        <v>16</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>67</v>
+        <v>17</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>68</v>
+        <v>18</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>69</v>
+        <v>19</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>71</v>
+        <v>21</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>72</v>
+        <v>22</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>73</v>
+        <v>23</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>74</v>
+        <v>24</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>75</v>
+        <v>25</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>76</v>
+        <v>26</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>77</v>
+        <v>27</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>78</v>
+        <v>28</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>79</v>
+        <v>29</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="AG1" s="9" t="s">
-        <v>80</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:33" ht="51" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>9</v>
+        <v>93</v>
       </c>
       <c r="C2" s="2">
         <v>1</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="G2" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H2" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I2" s="2">
         <v>2</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="O2" s="2"/>
+        <v>41</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>42</v>
+      </c>
       <c r="P2" s="2"/>
       <c r="Q2" s="2">
         <v>1999</v>
@@ -886,73 +933,77 @@
       <c r="T2" s="2">
         <v>2500</v>
       </c>
-      <c r="U2" s="2"/>
+      <c r="U2" s="2">
+        <v>1000</v>
+      </c>
       <c r="V2" s="2"/>
       <c r="W2" s="2"/>
       <c r="X2" s="2">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="Y2" s="2">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="Z2" s="2">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="AA2" s="2">
-        <v>30</v>
-      </c>
-      <c r="AB2" s="2"/>
+        <v>12</v>
+      </c>
+      <c r="AB2" s="2">
+        <v>32</v>
+      </c>
       <c r="AC2" s="2"/>
       <c r="AD2" s="2"/>
       <c r="AE2" s="2">
         <v>1</v>
       </c>
       <c r="AF2" s="2" t="s">
-        <v>7</v>
+        <v>43</v>
       </c>
       <c r="AG2" s="6" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="3" spans="1:33" ht="41.4" x14ac:dyDescent="0.3">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:33" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="C3" s="2">
         <v>1</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="G3" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H3" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I3" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>15</v>
+        <v>48</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>18</v>
+        <v>51</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
@@ -991,53 +1042,55 @@
         <v>1</v>
       </c>
       <c r="AF3" s="2" t="s">
-        <v>7</v>
+        <v>43</v>
       </c>
       <c r="AG3" s="6" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="4" spans="1:33" ht="41.4" x14ac:dyDescent="0.3">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:33" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>20</v>
+        <v>54</v>
       </c>
       <c r="C4" s="2">
         <v>1</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="G4" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H4" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I4" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>22</v>
+        <v>56</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>23</v>
+        <v>57</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>24</v>
+        <v>58</v>
       </c>
       <c r="M4" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="N4" s="2"/>
+        <v>59</v>
+      </c>
+      <c r="N4" s="7" t="s">
+        <v>59</v>
+      </c>
       <c r="O4" s="2"/>
       <c r="P4" s="2"/>
       <c r="Q4" s="2">
@@ -1074,30 +1127,30 @@
         <v>1</v>
       </c>
       <c r="AF4" s="2" t="s">
-        <v>7</v>
+        <v>43</v>
       </c>
       <c r="AG4" s="6" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="5" spans="1:33" ht="41.4" x14ac:dyDescent="0.3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:33" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>21</v>
+        <v>62</v>
       </c>
       <c r="C5" s="2">
         <v>1</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>21</v>
+        <v>63</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="G5" s="2">
         <v>4</v>
@@ -1109,16 +1162,16 @@
         <v>4</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>26</v>
+        <v>64</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>27</v>
+        <v>65</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>28</v>
+        <v>66</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>29</v>
+        <v>67</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
@@ -1157,30 +1210,28 @@
         <v>1</v>
       </c>
       <c r="AF5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="AG5" s="6" t="s">
-        <v>81</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="AG5" s="6"/>
     </row>
     <row r="6" spans="1:33" ht="69" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>30</v>
+        <v>69</v>
       </c>
       <c r="C6" s="2">
         <v>1</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="G6" s="2">
         <v>4</v>
@@ -1192,16 +1243,16 @@
         <v>4</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>31</v>
+        <v>71</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>32</v>
+        <v>72</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
@@ -1240,30 +1291,28 @@
         <v>1</v>
       </c>
       <c r="AF6" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="AG6" s="6" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="7" spans="1:33" ht="41.4" x14ac:dyDescent="0.3">
+        <v>43</v>
+      </c>
+      <c r="AG6" s="6"/>
+    </row>
+    <row r="7" spans="1:33" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
-        <v>52</v>
+        <v>75</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>35</v>
+        <v>76</v>
       </c>
       <c r="C7" s="2">
         <v>2</v>
       </c>
       <c r="D7" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E7" s="2" t="s">
-        <v>8</v>
-      </c>
       <c r="F7" s="2" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="G7" s="2">
         <v>3</v>
@@ -1275,13 +1324,13 @@
         <v>3</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>41</v>
+        <v>79</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>42</v>
+        <v>80</v>
       </c>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
@@ -1317,30 +1366,28 @@
         <v>1</v>
       </c>
       <c r="AF7" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="AG7" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="AG7" s="6"/>
+    </row>
+    <row r="8" spans="1:33" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="8" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="8" spans="1:33" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A8" s="8" t="s">
-        <v>53</v>
-      </c>
       <c r="B8" s="3" t="s">
-        <v>36</v>
+        <v>82</v>
       </c>
       <c r="C8" s="2">
         <v>2</v>
       </c>
       <c r="D8" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F8" s="2" t="s">
         <v>36</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>10</v>
       </c>
       <c r="G8" s="2">
         <v>3</v>
@@ -1352,13 +1399,13 @@
         <v>3</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>39</v>
+        <v>84</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>43</v>
+        <v>85</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>44</v>
+        <v>86</v>
       </c>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
@@ -1394,30 +1441,28 @@
         <v>1</v>
       </c>
       <c r="AF8" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="AG8" s="6" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="9" spans="1:33" ht="41.4" x14ac:dyDescent="0.3">
+        <v>43</v>
+      </c>
+      <c r="AG8" s="6"/>
+    </row>
+    <row r="9" spans="1:33" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
-        <v>54</v>
+        <v>87</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>37</v>
+        <v>88</v>
       </c>
       <c r="C9" s="2">
         <v>2</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>37</v>
+        <v>89</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="G9" s="2">
         <v>3</v>
@@ -1429,13 +1474,13 @@
         <v>3</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>45</v>
+        <v>91</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>46</v>
+        <v>92</v>
       </c>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
@@ -1471,11 +1516,9 @@
         <v>1</v>
       </c>
       <c r="AF9" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="AG9" s="6" t="s">
-        <v>81</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="AG9" s="6"/>
     </row>
     <row r="10" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="11" spans="1:33" x14ac:dyDescent="0.3">

--- a/data/Data Produk.xlsx
+++ b/data/Data Produk.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PROJECT\RPA\SoftwareIntegrationEcommerce\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCF0FFEA-5A5C-4BE2-92AA-1C509CA67032}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8F04952-D4C0-47BB-8717-8394CEFCA4F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{0DD45C04-94DB-4AB4-802F-C4CF8B78AA74}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="93">
   <si>
     <t>Foto Produk</t>
   </si>
@@ -312,6 +312,9 @@
   </si>
   <si>
     <t>spb-3</t>
+  </si>
+  <si>
+    <t>Update Stok</t>
   </si>
 </sst>
 </file>
@@ -751,8 +754,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8DD37BD-256C-43CC-8A0A-14309913C146}">
   <dimension ref="A1:AG30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="84" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="Z2" sqref="Z2"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" zoomScale="84" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="AG2" sqref="AG2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="42.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -954,7 +957,7 @@
         <v>43</v>
       </c>
       <c r="AG2" s="6" t="s">
-        <v>44</v>
+        <v>92</v>
       </c>
     </row>
     <row r="3" spans="1:33" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">

--- a/data/Data Produk.xlsx
+++ b/data/Data Produk.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PROJECT\RPA\SoftwareIntegrationEcommerce\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC7A2B92-9EB5-4C11-AFAE-1EF60218877F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB25B562-543C-4F9C-92F9-822E2A21E486}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{0DD45C04-94DB-4AB4-802F-C4CF8B78AA74}"/>
   </bookViews>
@@ -330,7 +330,7 @@
     <t>Directory</t>
   </si>
   <si>
-    <t>C:\Users\RICO TAFFAREL ANDI\Downloads</t>
+    <t>D:\PROJECT\RPA\SoftwareIntegrationEcommerce\data\Laporan</t>
   </si>
 </sst>
 </file>
@@ -1723,7 +1723,7 @@
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/data/Data Produk.xlsx
+++ b/data/Data Produk.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PROJECT\RPA\SoftwareIntegrationEcommerce\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB25B562-543C-4F9C-92F9-822E2A21E486}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{198817F2-866C-4A3B-843F-5BF27ED1FFF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{0DD45C04-94DB-4AB4-802F-C4CF8B78AA74}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{0DD45C04-94DB-4AB4-802F-C4CF8B78AA74}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="99">
   <si>
     <t>Foto Produk</t>
   </si>
@@ -306,9 +306,6 @@
     <t>spd-3</t>
   </si>
   <si>
-    <t>Add</t>
-  </si>
-  <si>
     <t>D:\PROJECT\RPA\SoftwareIntegrationEcommerce\data\Produk\Poster spongebob</t>
   </si>
   <si>
@@ -331,6 +328,12 @@
   </si>
   <si>
     <t>D:\PROJECT\RPA\SoftwareIntegrationEcommerce\data\Laporan</t>
+  </si>
+  <si>
+    <t>askla</t>
+  </si>
+  <si>
+    <t>dadada</t>
   </si>
 </sst>
 </file>
@@ -770,8 +773,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8DD37BD-256C-43CC-8A0A-14309913C146}">
   <dimension ref="A1:AG30"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" zoomScale="84" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="AA3" sqref="AA3"/>
+    <sheetView tabSelected="1" topLeftCell="U1" zoomScale="84" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="AG10" sqref="AG10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="49.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1461,21 +1464,21 @@
         <v>46</v>
       </c>
       <c r="AG8" s="6" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
     </row>
     <row r="9" spans="1:33" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>90</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>91</v>
       </c>
       <c r="C9" s="2">
         <v>2</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>36</v>
@@ -1493,13 +1496,13 @@
         <v>3</v>
       </c>
       <c r="J9" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="K9" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="K9" s="2" t="s">
+      <c r="L9" s="2" t="s">
         <v>94</v>
-      </c>
-      <c r="L9" s="2" t="s">
-        <v>95</v>
       </c>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
@@ -1538,7 +1541,7 @@
         <v>46</v>
       </c>
       <c r="AG9" s="6" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
     </row>
     <row r="10" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1722,7 +1725,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{130FF469-1BE8-4B38-A71B-FC0EE5B8E2F3}">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
@@ -1730,12 +1733,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>

--- a/data/Data Produk.xlsx
+++ b/data/Data Produk.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PROJECT\RPA\SoftwareIntegrationEcommerce\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{198817F2-866C-4A3B-843F-5BF27ED1FFF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1FDE3C4-D1BC-4B90-BAA7-F6F87A86A37A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{0DD45C04-94DB-4AB4-802F-C4CF8B78AA74}"/>
   </bookViews>
@@ -330,10 +330,10 @@
     <t>D:\PROJECT\RPA\SoftwareIntegrationEcommerce\data\Laporan</t>
   </si>
   <si>
-    <t>askla</t>
-  </si>
-  <si>
-    <t>dadada</t>
+    <t>asa</t>
+  </si>
+  <si>
+    <t>sa</t>
   </si>
 </sst>
 </file>
@@ -774,7 +774,7 @@
   <dimension ref="A1:AG30"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="U1" zoomScale="84" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="AG10" sqref="AG10"/>
+      <selection activeCell="AG9" sqref="AG9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="49.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/data/Data Produk.xlsx
+++ b/data/Data Produk.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Documents\DATA 2\PROJECT\RPA\SoftwareIntegrationEcommerce\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{513F9B4C-9070-4E00-B142-3EA0581F7F62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CD3C7A6-7B4D-432C-BEE1-42B38D55439A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <x:bookViews>
     <x:workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="0" activeTab="0" xr2:uid="{0DD45C04-94DB-4AB4-802F-C4CF8B78AA74}"/>
   </x:bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="99">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="101">
   <x:si>
     <x:t>Foto Produk</x:t>
   </x:si>
@@ -167,172 +167,178 @@
     <x:t>bp-5</x:t>
   </x:si>
   <x:si>
+    <x:t>bp-6</x:t>
+  </x:si>
+  <x:si>
+    <x:t>bp-7</x:t>
+  </x:si>
+  <x:si>
     <x:t>Hemat Rp.0</x:t>
   </x:si>
   <x:si>
-    <x:t>Update Stok</x:t>
+    <x:t>Update Data Success</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Directory</x:t>
+  </x:si>
+  <x:si>
+    <x:t>D:\PROJECT\RPA\SoftwareIntegrationEcommerce\data\Laporan</x:t>
+  </x:si>
+  <x:si>
+    <x:t>D:\PROJECT\RPA\SoftwareIntegrationEcommerce\data\Produk\poster rose</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Jual Poster Blackpink all Member Karakter Rose Full Print A4 New</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Jual Poster Blackpink all Member Karakter Rose Full Print. Bahan ac260 Finishing : laminasi glossy 2 sisi depan belakang Hasil mengkilap, anti air</x:t>
+  </x:si>
+  <x:si>
+    <x:t>rose-1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>rose-2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>rose-3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>rose-4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Post Data Success</x:t>
+  </x:si>
+  <x:si>
+    <x:t>D:\PROJECT\RPA\SoftwareIntegrationEcommerce\data\Produk\poster jennie</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Jual Poster Blackpink all Member Karakter Jennie Full Print A4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Jual Poster Blackpink all Member Karakter Jennie Full Print. Bahan ac260 Finishing : laminasi glossy 2 sisi depan belakang Hasil mengkilap, anti air</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Jennie-1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Jennie-2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Jennie-3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Jennie-4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>D:\PROJECT\RPA\SoftwareIntegrationEcommerce\data\Produk\poster jisoo</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Jual Poster Blackpink all Member Karakter Jisoo Full Print</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Jual Poster Blackpink all Member Karakter Jisoo Full Print. Bahan ac260 Finishing : laminasi glossy 2 sisi depan belakang Hasil mengkilap, anti air</x:t>
+  </x:si>
+  <x:si>
+    <x:t>jisoo-1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>jisoo-2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>jisoo-3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>jisoo-4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>D:\PROJECT\RPA\SoftwareIntegrationEcommerce\data\Produk\poster lisa</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Jual Poster Blackpink all Member Karakter Lisa Full Print</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Jual Poster Blackpink all Member Karakter Lisa Full Print. Bahan ac260 Finishing : laminasi glossy 2 sisi depan belakang Hasil mengkilap, anti air</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Lisa-1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Lisa-2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Lisa-3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Lisa-4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>D:\PROJECT\RPA\SoftwareIntegrationEcommerce\data\Produk\poster space</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Jual Poster Kartun Space Karakter Full Print</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Jual Poster Kartun Space Karakter Full Print. Bahan ac260 Finishing : laminasi glossy 2 sisi depan belakang Hasil mengkilap, anti air</x:t>
+  </x:si>
+  <x:si>
+    <x:t>spc-1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>spc-2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>spc-3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>D:\PROJECT\RPA\SoftwareIntegrationEcommerce\data\Produk\poster spiderman</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Jual Poster Kartun Spiderman Karakter Full Print</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Jual Poster Kartun Spiderman Karakter Full Print. Bahan ac260 Finishing : laminasi glossy 2 sisi depan belakang Hasil mengkilap, anti air</x:t>
+  </x:si>
+  <x:si>
+    <x:t>spd-1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>spd-2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>spd-3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>asa</x:t>
+  </x:si>
+  <x:si>
+    <x:t>D:\PROJECT\RPA\SoftwareIntegrationEcommerce\data\Produk\Poster spongebob</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Jual Poster Kartun Spongebob Karakter Full Print</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Jual Poster Kartun Spongebob Karakter Full Print. Bahan ac260 Finishing : laminasi glossy 2 sisi depan belakang Hasil mengkilap, anti air</x:t>
+  </x:si>
+  <x:si>
+    <x:t>spb-1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>spb-2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>spb-3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>sa</x:t>
   </x:si>
   <x:si>
     <x:t>poster blackpink 1 a</x:t>
   </x:si>
   <x:si>
-    <x:t>Post Data Success</x:t>
-  </x:si>
-  <x:si>
     <x:t>poster blackpink 1 b</x:t>
   </x:si>
   <x:si>
     <x:t>poster blackpink 1 c</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Directory</x:t>
-  </x:si>
-  <x:si>
-    <x:t>D:\PROJECT\RPA\SoftwareIntegrationEcommerce\data\Laporan</x:t>
-  </x:si>
-  <x:si>
-    <x:t>D:\PROJECT\RPA\SoftwareIntegrationEcommerce\data\Produk\poster rose</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Jual Poster Blackpink all Member Karakter Rose Full Print A4 New</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Jual Poster Blackpink all Member Karakter Rose Full Print. Bahan ac260 Finishing : laminasi glossy 2 sisi depan belakang Hasil mengkilap, anti air</x:t>
-  </x:si>
-  <x:si>
-    <x:t>rose-1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>rose-2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>rose-3</x:t>
-  </x:si>
-  <x:si>
-    <x:t>rose-4</x:t>
-  </x:si>
-  <x:si>
-    <x:t>D:\PROJECT\RPA\SoftwareIntegrationEcommerce\data\Produk\poster jennie</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Jual Poster Blackpink all Member Karakter Jennie Full Print A4</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Jual Poster Blackpink all Member Karakter Jennie Full Print. Bahan ac260 Finishing : laminasi glossy 2 sisi depan belakang Hasil mengkilap, anti air</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Jennie-1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Jennie-2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Jennie-3</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Jennie-4</x:t>
-  </x:si>
-  <x:si>
-    <x:t>D:\PROJECT\RPA\SoftwareIntegrationEcommerce\data\Produk\poster jisoo</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Jual Poster Blackpink all Member Karakter Jisoo Full Print</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Jual Poster Blackpink all Member Karakter Jisoo Full Print. Bahan ac260 Finishing : laminasi glossy 2 sisi depan belakang Hasil mengkilap, anti air</x:t>
-  </x:si>
-  <x:si>
-    <x:t>jisoo-1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>jisoo-2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>jisoo-3</x:t>
-  </x:si>
-  <x:si>
-    <x:t>jisoo-4</x:t>
-  </x:si>
-  <x:si>
-    <x:t>D:\PROJECT\RPA\SoftwareIntegrationEcommerce\data\Produk\poster lisa</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Jual Poster Blackpink all Member Karakter Lisa Full Print</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Jual Poster Blackpink all Member Karakter Lisa Full Print. Bahan ac260 Finishing : laminasi glossy 2 sisi depan belakang Hasil mengkilap, anti air</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Lisa-1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Lisa-2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Lisa-3</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Lisa-4</x:t>
-  </x:si>
-  <x:si>
-    <x:t>D:\PROJECT\RPA\SoftwareIntegrationEcommerce\data\Produk\poster space</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Jual Poster Kartun Space Karakter Full Print</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Jual Poster Kartun Space Karakter Full Print. Bahan ac260 Finishing : laminasi glossy 2 sisi depan belakang Hasil mengkilap, anti air</x:t>
-  </x:si>
-  <x:si>
-    <x:t>spc-1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>spc-2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>spc-3</x:t>
-  </x:si>
-  <x:si>
-    <x:t>D:\PROJECT\RPA\SoftwareIntegrationEcommerce\data\Produk\poster spiderman</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Jual Poster Kartun Spiderman Karakter Full Print</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Jual Poster Kartun Spiderman Karakter Full Print. Bahan ac260 Finishing : laminasi glossy 2 sisi depan belakang Hasil mengkilap, anti air</x:t>
-  </x:si>
-  <x:si>
-    <x:t>spd-1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>spd-2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>spd-3</x:t>
-  </x:si>
-  <x:si>
-    <x:t>asa</x:t>
-  </x:si>
-  <x:si>
-    <x:t>D:\PROJECT\RPA\SoftwareIntegrationEcommerce\data\Produk\Poster spongebob</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Jual Poster Kartun Spongebob Karakter Full Print</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Jual Poster Kartun Spongebob Karakter Full Print. Bahan ac260 Finishing : laminasi glossy 2 sisi depan belakang Hasil mengkilap, anti air</x:t>
-  </x:si>
-  <x:si>
-    <x:t>spb-1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>spb-2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>spb-3</x:t>
-  </x:si>
-  <x:si>
-    <x:t>sa</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -803,11 +809,11 @@
   </x:sheetPr>
   <x:dimension ref="A1:AG30"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="1" topLeftCell="AG1" zoomScale="84" zoomScaleNormal="80" workbookViewId="0">
-      <x:selection activeCell="AG6" sqref="AG6"/>
+    <x:sheetView tabSelected="1" zoomScale="84" zoomScaleNormal="80" workbookViewId="0">
+      <x:selection activeCell="B2" sqref="B2"/>
     </x:sheetView>
   </x:sheetViews>
-  <x:sheetFormatPr defaultColWidth="62.16375" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <x:sheetFormatPr defaultColWidth="83.980156" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <x:cols>
     <x:col min="1" max="1" width="42.816406" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="61.816406" style="0" customWidth="1"/>
@@ -940,7 +946,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="G2" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H2" s="1" t="n">
         <x:v>4</x:v>
@@ -963,8 +969,12 @@
       <x:c r="N2" s="1" t="s">
         <x:v>42</x:v>
       </x:c>
-      <x:c r="O2" s="1" t="s"/>
-      <x:c r="P2" s="1" t="s"/>
+      <x:c r="O2" s="1" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="P2" s="1" t="s">
+        <x:v>44</x:v>
+      </x:c>
       <x:c r="Q2" s="1" t="n">
         <x:v>1999</x:v>
       </x:c>
@@ -980,10 +990,14 @@
       <x:c r="U2" s="1" t="n">
         <x:v>1000</x:v>
       </x:c>
-      <x:c r="V2" s="1" t="s"/>
-      <x:c r="W2" s="1" t="s"/>
+      <x:c r="V2" s="1" t="n">
+        <x:v>2000</x:v>
+      </x:c>
+      <x:c r="W2" s="1" t="n">
+        <x:v>2100</x:v>
+      </x:c>
       <x:c r="X2" s="1" t="n">
-        <x:v>40</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="Y2" s="1" t="n">
         <x:v>40</x:v>
@@ -997,285 +1011,25 @@
       <x:c r="AB2" s="1" t="n">
         <x:v>40</x:v>
       </x:c>
-      <x:c r="AC2" s="1" t="s"/>
-      <x:c r="AD2" s="1" t="s"/>
+      <x:c r="AC2" s="1" t="n">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="AD2" s="1" t="n">
+        <x:v>40</x:v>
+      </x:c>
       <x:c r="AE2" s="1" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="AF2" s="1" t="s">
-        <x:v>43</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="AG2" s="5" t="s">
-        <x:v>44</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="3" spans="1:33" customFormat="1" ht="41.4" customHeight="1" x14ac:dyDescent="0.35">
-      <x:c r="A3" s="7" t="s">
-        <x:v>33</x:v>
-      </x:c>
-      <x:c r="B3" s="2" t="s">
-        <x:v>45</x:v>
-      </x:c>
-      <x:c r="C3" s="1" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="D3" s="2" t="s">
-        <x:v>35</x:v>
-      </x:c>
-      <x:c r="E3" s="1" t="s">
-        <x:v>36</x:v>
-      </x:c>
-      <x:c r="F3" s="1" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="G3" s="1" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="H3" s="1" t="n">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="I3" s="1" t="n">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="J3" s="1" t="s">
-        <x:v>38</x:v>
-      </x:c>
-      <x:c r="K3" s="1" t="s">
-        <x:v>39</x:v>
-      </x:c>
-      <x:c r="L3" s="1" t="s">
-        <x:v>40</x:v>
-      </x:c>
-      <x:c r="M3" s="1" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="N3" s="1" t="s">
-        <x:v>42</x:v>
-      </x:c>
-      <x:c r="O3" s="1" t="s"/>
-      <x:c r="P3" s="1" t="s"/>
-      <x:c r="Q3" s="1" t="n">
-        <x:v>1999</x:v>
-      </x:c>
-      <x:c r="R3" s="1" t="n">
-        <x:v>2100</x:v>
-      </x:c>
-      <x:c r="S3" s="1" t="n">
-        <x:v>2250</x:v>
-      </x:c>
-      <x:c r="T3" s="1" t="n">
-        <x:v>2500</x:v>
-      </x:c>
-      <x:c r="U3" s="1" t="n">
-        <x:v>1000</x:v>
-      </x:c>
-      <x:c r="V3" s="1" t="s"/>
-      <x:c r="W3" s="1" t="s"/>
-      <x:c r="X3" s="1" t="n">
-        <x:v>40</x:v>
-      </x:c>
-      <x:c r="Y3" s="1" t="n">
-        <x:v>40</x:v>
-      </x:c>
-      <x:c r="Z3" s="1" t="n">
-        <x:v>40</x:v>
-      </x:c>
-      <x:c r="AA3" s="1" t="n">
-        <x:v>40</x:v>
-      </x:c>
-      <x:c r="AB3" s="1" t="n">
-        <x:v>40</x:v>
-      </x:c>
-      <x:c r="AC3" s="1" t="s"/>
-      <x:c r="AD3" s="1" t="s"/>
-      <x:c r="AE3" s="1" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AF3" s="1" t="s">
-        <x:v>43</x:v>
-      </x:c>
-      <x:c r="AG3" s="5" t="s">
         <x:v>46</x:v>
       </x:c>
     </x:row>
-    <x:row r="4" spans="1:33" customFormat="1" ht="41.4" customHeight="1" x14ac:dyDescent="0.35">
-      <x:c r="A4" s="7" t="s">
-        <x:v>33</x:v>
-      </x:c>
-      <x:c r="B4" s="2" t="s">
-        <x:v>47</x:v>
-      </x:c>
-      <x:c r="C4" s="1" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="D4" s="2" t="s">
-        <x:v>35</x:v>
-      </x:c>
-      <x:c r="E4" s="1" t="s">
-        <x:v>36</x:v>
-      </x:c>
-      <x:c r="F4" s="1" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="G4" s="1" t="n">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="H4" s="1" t="n">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="I4" s="1" t="n">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="J4" s="1" t="s">
-        <x:v>38</x:v>
-      </x:c>
-      <x:c r="K4" s="1" t="s">
-        <x:v>39</x:v>
-      </x:c>
-      <x:c r="L4" s="1" t="s">
-        <x:v>40</x:v>
-      </x:c>
-      <x:c r="M4" s="1" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="N4" s="1" t="s">
-        <x:v>42</x:v>
-      </x:c>
-      <x:c r="O4" s="1" t="s"/>
-      <x:c r="P4" s="1" t="s"/>
-      <x:c r="Q4" s="1" t="n">
-        <x:v>1999</x:v>
-      </x:c>
-      <x:c r="R4" s="1" t="n">
-        <x:v>2100</x:v>
-      </x:c>
-      <x:c r="S4" s="1" t="n">
-        <x:v>2250</x:v>
-      </x:c>
-      <x:c r="T4" s="1" t="n">
-        <x:v>2500</x:v>
-      </x:c>
-      <x:c r="U4" s="1" t="n">
-        <x:v>1000</x:v>
-      </x:c>
-      <x:c r="V4" s="1" t="s"/>
-      <x:c r="W4" s="1" t="s"/>
-      <x:c r="X4" s="1" t="n">
-        <x:v>40</x:v>
-      </x:c>
-      <x:c r="Y4" s="1" t="n">
-        <x:v>40</x:v>
-      </x:c>
-      <x:c r="Z4" s="1" t="n">
-        <x:v>40</x:v>
-      </x:c>
-      <x:c r="AA4" s="1" t="n">
-        <x:v>40</x:v>
-      </x:c>
-      <x:c r="AB4" s="1" t="n">
-        <x:v>40</x:v>
-      </x:c>
-      <x:c r="AC4" s="1" t="s"/>
-      <x:c r="AD4" s="1" t="s"/>
-      <x:c r="AE4" s="1" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AF4" s="1" t="s">
-        <x:v>43</x:v>
-      </x:c>
-      <x:c r="AG4" s="5" t="s">
-        <x:v>46</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="5" spans="1:33" customFormat="1" ht="41.4" customHeight="1" x14ac:dyDescent="0.35">
-      <x:c r="A5" s="7" t="s">
-        <x:v>33</x:v>
-      </x:c>
-      <x:c r="B5" s="2" t="s">
-        <x:v>48</x:v>
-      </x:c>
-      <x:c r="C5" s="1" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="D5" s="2" t="s">
-        <x:v>35</x:v>
-      </x:c>
-      <x:c r="E5" s="1" t="s">
-        <x:v>36</x:v>
-      </x:c>
-      <x:c r="F5" s="1" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="G5" s="1" t="n">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="H5" s="1" t="n">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="I5" s="1" t="n">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="J5" s="1" t="s">
-        <x:v>38</x:v>
-      </x:c>
-      <x:c r="K5" s="1" t="s">
-        <x:v>39</x:v>
-      </x:c>
-      <x:c r="L5" s="1" t="s">
-        <x:v>40</x:v>
-      </x:c>
-      <x:c r="M5" s="1" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="N5" s="1" t="s">
-        <x:v>42</x:v>
-      </x:c>
-      <x:c r="O5" s="1" t="s"/>
-      <x:c r="P5" s="1" t="s"/>
-      <x:c r="Q5" s="1" t="n">
-        <x:v>1999</x:v>
-      </x:c>
-      <x:c r="R5" s="1" t="n">
-        <x:v>2100</x:v>
-      </x:c>
-      <x:c r="S5" s="1" t="n">
-        <x:v>2250</x:v>
-      </x:c>
-      <x:c r="T5" s="1" t="n">
-        <x:v>2500</x:v>
-      </x:c>
-      <x:c r="U5" s="1" t="n">
-        <x:v>1000</x:v>
-      </x:c>
-      <x:c r="V5" s="1" t="s"/>
-      <x:c r="W5" s="1" t="s"/>
-      <x:c r="X5" s="1" t="n">
-        <x:v>40</x:v>
-      </x:c>
-      <x:c r="Y5" s="1" t="n">
-        <x:v>40</x:v>
-      </x:c>
-      <x:c r="Z5" s="1" t="n">
-        <x:v>40</x:v>
-      </x:c>
-      <x:c r="AA5" s="1" t="n">
-        <x:v>40</x:v>
-      </x:c>
-      <x:c r="AB5" s="1" t="n">
-        <x:v>40</x:v>
-      </x:c>
-      <x:c r="AC5" s="1" t="s"/>
-      <x:c r="AD5" s="1" t="s"/>
-      <x:c r="AE5" s="1" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AF5" s="1" t="s">
-        <x:v>43</x:v>
-      </x:c>
-      <x:c r="AG5" s="5" t="s">
-        <x:v>46</x:v>
-      </x:c>
-    </x:row>
+    <x:row r="3" spans="1:33" customFormat="1" ht="41.4" customHeight="1" x14ac:dyDescent="0.35"/>
+    <x:row r="4" spans="1:33" customFormat="1" ht="41.4" customHeight="1" x14ac:dyDescent="0.35"/>
+    <x:row r="5" spans="1:33" customFormat="1" ht="41.4" customHeight="1" x14ac:dyDescent="0.35"/>
     <x:row r="6" spans="1:33" customFormat="1" ht="69" customHeight="1" x14ac:dyDescent="0.35"/>
     <x:row r="7" spans="1:33" customFormat="1" ht="41.4" customHeight="1" x14ac:dyDescent="0.35"/>
     <x:row r="8" spans="1:33" customFormat="1" ht="41.4" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1466,36 +1220,36 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:AG9"/>
+  <x:dimension ref="A1:AG20"/>
   <x:sheetViews>
-    <x:sheetView workbookViewId="0">
-      <x:selection activeCell="A3" sqref="A3 A3:AG9"/>
+    <x:sheetView topLeftCell="A10" workbookViewId="0">
+      <x:selection activeCell="A18" sqref="A18 A18:AG20"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <x:sheetData>
     <x:row r="1" spans="1:33" x14ac:dyDescent="0.35">
       <x:c r="A1" s="0" t="s">
-        <x:v>49</x:v>
+        <x:v>47</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:33" x14ac:dyDescent="0.35">
       <x:c r="A2" s="0" t="s">
-        <x:v>50</x:v>
+        <x:v>48</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:33" customFormat="1" ht="308" customHeight="1" x14ac:dyDescent="0.35">
       <x:c r="A3" s="7" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="B3" s="2" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="C3" s="1" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="D3" s="2" t="s">
         <x:v>51</x:v>
-      </x:c>
-      <x:c r="B3" s="2" t="s">
-        <x:v>52</x:v>
-      </x:c>
-      <x:c r="C3" s="1" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="D3" s="2" t="s">
-        <x:v>53</x:v>
       </x:c>
       <x:c r="E3" s="1" t="s">
         <x:v>36</x:v>
@@ -1513,16 +1267,16 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="J3" s="1" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="K3" s="1" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="L3" s="1" t="s">
         <x:v>54</x:v>
       </x:c>
-      <x:c r="K3" s="1" t="s">
+      <x:c r="M3" s="1" t="s">
         <x:v>55</x:v>
-      </x:c>
-      <x:c r="L3" s="1" t="s">
-        <x:v>56</x:v>
-      </x:c>
-      <x:c r="M3" s="1" t="s">
-        <x:v>57</x:v>
       </x:c>
       <x:c r="N3" s="1" t="s"/>
       <x:c r="O3" s="1" t="s"/>
@@ -1561,24 +1315,24 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="AF3" s="1" t="s">
-        <x:v>43</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="AG3" s="5" t="s">
-        <x:v>46</x:v>
+        <x:v>56</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:33" customFormat="1" ht="308" customHeight="1" x14ac:dyDescent="0.35">
       <x:c r="A4" s="7" t="s">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="B4" s="2" t="s">
         <x:v>58</x:v>
       </x:c>
-      <x:c r="B4" s="2" t="s">
+      <x:c r="C4" s="1" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="D4" s="2" t="s">
         <x:v>59</x:v>
-      </x:c>
-      <x:c r="C4" s="1" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="D4" s="2" t="s">
-        <x:v>60</x:v>
       </x:c>
       <x:c r="E4" s="1" t="s">
         <x:v>36</x:v>
@@ -1596,19 +1350,19 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="J4" s="1" t="s">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="K4" s="6" t="s">
         <x:v>61</x:v>
       </x:c>
-      <x:c r="K4" s="6" t="s">
+      <x:c r="L4" s="6" t="s">
         <x:v>62</x:v>
       </x:c>
-      <x:c r="L4" s="6" t="s">
+      <x:c r="M4" s="6" t="s">
         <x:v>63</x:v>
       </x:c>
-      <x:c r="M4" s="6" t="s">
-        <x:v>64</x:v>
-      </x:c>
       <x:c r="N4" s="6" t="s">
-        <x:v>64</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="O4" s="1" t="s"/>
       <x:c r="P4" s="1" t="s"/>
@@ -1646,24 +1400,24 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="AF4" s="1" t="s">
-        <x:v>43</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="AG4" s="5" t="s">
-        <x:v>46</x:v>
+        <x:v>56</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:33" customFormat="1" ht="308" customHeight="1" x14ac:dyDescent="0.35">
       <x:c r="A5" s="7" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="B5" s="2" t="s">
         <x:v>65</x:v>
       </x:c>
-      <x:c r="B5" s="2" t="s">
+      <x:c r="C5" s="1" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="D5" s="2" t="s">
         <x:v>66</x:v>
-      </x:c>
-      <x:c r="C5" s="1" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="D5" s="2" t="s">
-        <x:v>67</x:v>
       </x:c>
       <x:c r="E5" s="1" t="s">
         <x:v>36</x:v>
@@ -1681,16 +1435,16 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="J5" s="1" t="s">
+        <x:v>67</x:v>
+      </x:c>
+      <x:c r="K5" s="1" t="s">
         <x:v>68</x:v>
       </x:c>
-      <x:c r="K5" s="1" t="s">
+      <x:c r="L5" s="1" t="s">
         <x:v>69</x:v>
       </x:c>
-      <x:c r="L5" s="1" t="s">
+      <x:c r="M5" s="1" t="s">
         <x:v>70</x:v>
-      </x:c>
-      <x:c r="M5" s="1" t="s">
-        <x:v>71</x:v>
       </x:c>
       <x:c r="N5" s="1" t="s"/>
       <x:c r="O5" s="1" t="s"/>
@@ -1729,24 +1483,24 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="AF5" s="1" t="s">
-        <x:v>43</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="AG5" s="5" t="s">
-        <x:v>46</x:v>
+        <x:v>56</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:33" customFormat="1" ht="294" customHeight="1" x14ac:dyDescent="0.35">
       <x:c r="A6" s="7" t="s">
+        <x:v>71</x:v>
+      </x:c>
+      <x:c r="B6" s="2" t="s">
         <x:v>72</x:v>
       </x:c>
-      <x:c r="B6" s="2" t="s">
+      <x:c r="C6" s="1" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="D6" s="2" t="s">
         <x:v>73</x:v>
-      </x:c>
-      <x:c r="C6" s="1" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="D6" s="2" t="s">
-        <x:v>74</x:v>
       </x:c>
       <x:c r="E6" s="1" t="s">
         <x:v>36</x:v>
@@ -1764,16 +1518,16 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="J6" s="1" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="K6" s="1" t="s">
         <x:v>75</x:v>
       </x:c>
-      <x:c r="K6" s="1" t="s">
+      <x:c r="L6" s="1" t="s">
         <x:v>76</x:v>
       </x:c>
-      <x:c r="L6" s="1" t="s">
+      <x:c r="M6" s="1" t="s">
         <x:v>77</x:v>
-      </x:c>
-      <x:c r="M6" s="1" t="s">
-        <x:v>78</x:v>
       </x:c>
       <x:c r="N6" s="1" t="s"/>
       <x:c r="O6" s="1" t="s"/>
@@ -1812,24 +1566,24 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="AF6" s="1" t="s">
-        <x:v>43</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="AG6" s="5" t="s">
-        <x:v>46</x:v>
+        <x:v>56</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:33" customFormat="1" ht="280" customHeight="1" x14ac:dyDescent="0.35">
       <x:c r="A7" s="7" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="B7" s="2" t="s">
         <x:v>79</x:v>
-      </x:c>
-      <x:c r="B7" s="2" t="s">
-        <x:v>80</x:v>
       </x:c>
       <x:c r="C7" s="1" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="D7" s="2" t="s">
-        <x:v>81</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="E7" s="1" t="s">
         <x:v>36</x:v>
@@ -1847,13 +1601,13 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="J7" s="1" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="K7" s="1" t="s">
         <x:v>82</x:v>
       </x:c>
-      <x:c r="K7" s="1" t="s">
+      <x:c r="L7" s="1" t="s">
         <x:v>83</x:v>
-      </x:c>
-      <x:c r="L7" s="1" t="s">
-        <x:v>84</x:v>
       </x:c>
       <x:c r="M7" s="1" t="s"/>
       <x:c r="N7" s="1" t="s"/>
@@ -1889,24 +1643,24 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="AF7" s="1" t="s">
-        <x:v>43</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="AG7" s="5" t="s">
-        <x:v>46</x:v>
+        <x:v>56</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:33" customFormat="1" ht="294" customHeight="1" x14ac:dyDescent="0.35">
       <x:c r="A8" s="7" t="s">
+        <x:v>84</x:v>
+      </x:c>
+      <x:c r="B8" s="2" t="s">
         <x:v>85</x:v>
-      </x:c>
-      <x:c r="B8" s="2" t="s">
-        <x:v>86</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="D8" s="2" t="s">
-        <x:v>87</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="E8" s="1" t="s">
         <x:v>36</x:v>
@@ -1924,13 +1678,13 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="J8" s="1" t="s">
+        <x:v>87</x:v>
+      </x:c>
+      <x:c r="K8" s="1" t="s">
         <x:v>88</x:v>
       </x:c>
-      <x:c r="K8" s="1" t="s">
+      <x:c r="L8" s="1" t="s">
         <x:v>89</x:v>
-      </x:c>
-      <x:c r="L8" s="1" t="s">
-        <x:v>90</x:v>
       </x:c>
       <x:c r="M8" s="1" t="s"/>
       <x:c r="N8" s="1" t="s"/>
@@ -1966,24 +1720,24 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="AF8" s="1" t="s">
-        <x:v>43</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="AG8" s="5" t="s">
-        <x:v>91</x:v>
+        <x:v>90</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:33" customFormat="1" ht="294" customHeight="1" x14ac:dyDescent="0.35">
       <x:c r="A9" s="7" t="s">
+        <x:v>91</x:v>
+      </x:c>
+      <x:c r="B9" s="2" t="s">
         <x:v>92</x:v>
-      </x:c>
-      <x:c r="B9" s="2" t="s">
-        <x:v>93</x:v>
       </x:c>
       <x:c r="C9" s="1" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="D9" s="2" t="s">
-        <x:v>94</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="E9" s="1" t="s">
         <x:v>36</x:v>
@@ -2001,13 +1755,13 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="J9" s="1" t="s">
+        <x:v>94</x:v>
+      </x:c>
+      <x:c r="K9" s="1" t="s">
         <x:v>95</x:v>
       </x:c>
-      <x:c r="K9" s="1" t="s">
+      <x:c r="L9" s="1" t="s">
         <x:v>96</x:v>
-      </x:c>
-      <x:c r="L9" s="1" t="s">
-        <x:v>97</x:v>
       </x:c>
       <x:c r="M9" s="1" t="s"/>
       <x:c r="N9" s="1" t="s"/>
@@ -2043,10 +1797,277 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="AF9" s="1" t="s">
-        <x:v>43</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="AG9" s="5" t="s">
+        <x:v>97</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="18" spans="1:33" customFormat="1" ht="280" customHeight="1" x14ac:dyDescent="0.35">
+      <x:c r="A18" s="7" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="B18" s="2" t="s">
         <x:v>98</x:v>
+      </x:c>
+      <x:c r="C18" s="1" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="D18" s="2" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="E18" s="1" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="F18" s="1" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="G18" s="1" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="H18" s="1" t="n">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="I18" s="1" t="n">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="J18" s="1" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="K18" s="1" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="L18" s="1" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="M18" s="1" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="N18" s="1" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="O18" s="1" t="s"/>
+      <x:c r="P18" s="1" t="s"/>
+      <x:c r="Q18" s="1" t="n">
+        <x:v>1999</x:v>
+      </x:c>
+      <x:c r="R18" s="1" t="n">
+        <x:v>2100</x:v>
+      </x:c>
+      <x:c r="S18" s="1" t="n">
+        <x:v>2250</x:v>
+      </x:c>
+      <x:c r="T18" s="1" t="n">
+        <x:v>2500</x:v>
+      </x:c>
+      <x:c r="U18" s="1" t="n">
+        <x:v>1000</x:v>
+      </x:c>
+      <x:c r="V18" s="1" t="s"/>
+      <x:c r="W18" s="1" t="s"/>
+      <x:c r="X18" s="1" t="n">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="Y18" s="1" t="n">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="Z18" s="1" t="n">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="AA18" s="1" t="n">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="AB18" s="1" t="n">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="AC18" s="1" t="s"/>
+      <x:c r="AD18" s="1" t="s"/>
+      <x:c r="AE18" s="1" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AF18" s="1" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="AG18" s="5" t="s">
+        <x:v>56</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="19" spans="1:33" customFormat="1" ht="280" customHeight="1" x14ac:dyDescent="0.35">
+      <x:c r="A19" s="7" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="B19" s="2" t="s">
+        <x:v>99</x:v>
+      </x:c>
+      <x:c r="C19" s="1" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="D19" s="2" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="E19" s="1" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="F19" s="1" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="G19" s="1" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="H19" s="1" t="n">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="I19" s="1" t="n">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="J19" s="1" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="K19" s="1" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="L19" s="1" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="M19" s="1" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="N19" s="1" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="O19" s="1" t="s"/>
+      <x:c r="P19" s="1" t="s"/>
+      <x:c r="Q19" s="1" t="n">
+        <x:v>1999</x:v>
+      </x:c>
+      <x:c r="R19" s="1" t="n">
+        <x:v>2100</x:v>
+      </x:c>
+      <x:c r="S19" s="1" t="n">
+        <x:v>2250</x:v>
+      </x:c>
+      <x:c r="T19" s="1" t="n">
+        <x:v>2500</x:v>
+      </x:c>
+      <x:c r="U19" s="1" t="n">
+        <x:v>1000</x:v>
+      </x:c>
+      <x:c r="V19" s="1" t="s"/>
+      <x:c r="W19" s="1" t="s"/>
+      <x:c r="X19" s="1" t="n">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="Y19" s="1" t="n">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="Z19" s="1" t="n">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="AA19" s="1" t="n">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="AB19" s="1" t="n">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="AC19" s="1" t="s"/>
+      <x:c r="AD19" s="1" t="s"/>
+      <x:c r="AE19" s="1" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AF19" s="1" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="AG19" s="5" t="s">
+        <x:v>56</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="20" spans="1:33" customFormat="1" ht="280" customHeight="1" x14ac:dyDescent="0.35">
+      <x:c r="A20" s="7" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="B20" s="2" t="s">
+        <x:v>100</x:v>
+      </x:c>
+      <x:c r="C20" s="1" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="D20" s="2" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="E20" s="1" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="F20" s="1" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="G20" s="1" t="n">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="H20" s="1" t="n">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="I20" s="1" t="n">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="J20" s="1" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="K20" s="1" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="L20" s="1" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="M20" s="1" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="N20" s="1" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="O20" s="1" t="s"/>
+      <x:c r="P20" s="1" t="s"/>
+      <x:c r="Q20" s="1" t="n">
+        <x:v>1999</x:v>
+      </x:c>
+      <x:c r="R20" s="1" t="n">
+        <x:v>2100</x:v>
+      </x:c>
+      <x:c r="S20" s="1" t="n">
+        <x:v>2250</x:v>
+      </x:c>
+      <x:c r="T20" s="1" t="n">
+        <x:v>2500</x:v>
+      </x:c>
+      <x:c r="U20" s="1" t="n">
+        <x:v>1000</x:v>
+      </x:c>
+      <x:c r="V20" s="1" t="s"/>
+      <x:c r="W20" s="1" t="s"/>
+      <x:c r="X20" s="1" t="n">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="Y20" s="1" t="n">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="Z20" s="1" t="n">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="AA20" s="1" t="n">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="AB20" s="1" t="n">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="AC20" s="1" t="s"/>
+      <x:c r="AD20" s="1" t="s"/>
+      <x:c r="AE20" s="1" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AF20" s="1" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="AG20" s="5" t="s">
+        <x:v>56</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/data/Data Produk.xlsx
+++ b/data/Data Produk.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Documents\DATA 2\PROJECT\RPA\SoftwareIntegrationEcommerce\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CD3C7A6-7B4D-432C-BEE1-42B38D55439A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34D3944D-2EC8-4AE4-9187-962EEDDBEE7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <x:bookViews>
     <x:workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="0" activeTab="0" xr2:uid="{0DD45C04-94DB-4AB4-802F-C4CF8B78AA74}"/>
   </x:bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="101">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="103">
   <x:si>
     <x:t>Foto Produk</x:t>
   </x:si>
@@ -171,6 +171,12 @@
   </x:si>
   <x:si>
     <x:t>bp-7</x:t>
+  </x:si>
+  <x:si>
+    <x:t>20</x:t>
+  </x:si>
+  <x:si>
+    <x:t>10</x:t>
   </x:si>
   <x:si>
     <x:t>Hemat Rp.0</x:t>
@@ -809,11 +815,11 @@
   </x:sheetPr>
   <x:dimension ref="A1:AG30"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="1" zoomScale="84" zoomScaleNormal="80" workbookViewId="0">
-      <x:selection activeCell="B2" sqref="B2"/>
+    <x:sheetView tabSelected="1" topLeftCell="J1" zoomScale="84" zoomScaleNormal="80" workbookViewId="0">
+      <x:selection activeCell="AA2" sqref="AA2"/>
     </x:sheetView>
   </x:sheetViews>
-  <x:sheetFormatPr defaultColWidth="83.980156" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <x:sheetFormatPr defaultColWidth="96.253594" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <x:cols>
     <x:col min="1" max="1" width="42.816406" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="61.816406" style="0" customWidth="1"/>
@@ -946,7 +952,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="G2" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="H2" s="1" t="n">
         <x:v>4</x:v>
@@ -996,17 +1002,17 @@
       <x:c r="W2" s="1" t="n">
         <x:v>2100</x:v>
       </x:c>
-      <x:c r="X2" s="1" t="n">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="Y2" s="1" t="n">
-        <x:v>40</x:v>
-      </x:c>
-      <x:c r="Z2" s="1" t="n">
-        <x:v>40</x:v>
-      </x:c>
-      <x:c r="AA2" s="1" t="n">
-        <x:v>40</x:v>
+      <x:c r="X2" s="1" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="Y2" s="1" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="Z2" s="1" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="AA2" s="1" t="s">
+        <x:v>46</x:v>
       </x:c>
       <x:c r="AB2" s="1" t="n">
         <x:v>40</x:v>
@@ -1021,10 +1027,10 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="AF2" s="1" t="s">
-        <x:v>45</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="AG2" s="5" t="s">
-        <x:v>46</x:v>
+        <x:v>48</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:33" customFormat="1" ht="41.4" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1230,26 +1236,26 @@
   <x:sheetData>
     <x:row r="1" spans="1:33" x14ac:dyDescent="0.35">
       <x:c r="A1" s="0" t="s">
-        <x:v>47</x:v>
+        <x:v>49</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:33" x14ac:dyDescent="0.35">
       <x:c r="A2" s="0" t="s">
-        <x:v>48</x:v>
+        <x:v>50</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:33" customFormat="1" ht="308" customHeight="1" x14ac:dyDescent="0.35">
       <x:c r="A3" s="7" t="s">
-        <x:v>49</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="B3" s="2" t="s">
-        <x:v>50</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="C3" s="1" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="D3" s="2" t="s">
-        <x:v>51</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="E3" s="1" t="s">
         <x:v>36</x:v>
@@ -1267,16 +1273,16 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="J3" s="1" t="s">
-        <x:v>52</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="K3" s="1" t="s">
-        <x:v>53</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="L3" s="1" t="s">
-        <x:v>54</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="M3" s="1" t="s">
-        <x:v>55</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="N3" s="1" t="s"/>
       <x:c r="O3" s="1" t="s"/>
@@ -1315,24 +1321,24 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="AF3" s="1" t="s">
-        <x:v>45</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="AG3" s="5" t="s">
-        <x:v>56</x:v>
+        <x:v>58</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:33" customFormat="1" ht="308" customHeight="1" x14ac:dyDescent="0.35">
       <x:c r="A4" s="7" t="s">
-        <x:v>57</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="B4" s="2" t="s">
-        <x:v>58</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="C4" s="1" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="D4" s="2" t="s">
-        <x:v>59</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="E4" s="1" t="s">
         <x:v>36</x:v>
@@ -1350,19 +1356,19 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="J4" s="1" t="s">
-        <x:v>60</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="K4" s="6" t="s">
-        <x:v>61</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="L4" s="6" t="s">
-        <x:v>62</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="M4" s="6" t="s">
-        <x:v>63</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="N4" s="6" t="s">
-        <x:v>63</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="O4" s="1" t="s"/>
       <x:c r="P4" s="1" t="s"/>
@@ -1400,24 +1406,24 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="AF4" s="1" t="s">
-        <x:v>45</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="AG4" s="5" t="s">
-        <x:v>56</x:v>
+        <x:v>58</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:33" customFormat="1" ht="308" customHeight="1" x14ac:dyDescent="0.35">
       <x:c r="A5" s="7" t="s">
-        <x:v>64</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="B5" s="2" t="s">
-        <x:v>65</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="C5" s="1" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="D5" s="2" t="s">
-        <x:v>66</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="E5" s="1" t="s">
         <x:v>36</x:v>
@@ -1435,16 +1441,16 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="J5" s="1" t="s">
-        <x:v>67</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="K5" s="1" t="s">
-        <x:v>68</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="L5" s="1" t="s">
-        <x:v>69</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="M5" s="1" t="s">
-        <x:v>70</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="N5" s="1" t="s"/>
       <x:c r="O5" s="1" t="s"/>
@@ -1483,24 +1489,24 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="AF5" s="1" t="s">
-        <x:v>45</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="AG5" s="5" t="s">
-        <x:v>56</x:v>
+        <x:v>58</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:33" customFormat="1" ht="294" customHeight="1" x14ac:dyDescent="0.35">
       <x:c r="A6" s="7" t="s">
-        <x:v>71</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="B6" s="2" t="s">
-        <x:v>72</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="C6" s="1" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="D6" s="2" t="s">
-        <x:v>73</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="E6" s="1" t="s">
         <x:v>36</x:v>
@@ -1518,16 +1524,16 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="J6" s="1" t="s">
-        <x:v>74</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="K6" s="1" t="s">
-        <x:v>75</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="L6" s="1" t="s">
-        <x:v>76</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="M6" s="1" t="s">
-        <x:v>77</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="N6" s="1" t="s"/>
       <x:c r="O6" s="1" t="s"/>
@@ -1566,24 +1572,24 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="AF6" s="1" t="s">
-        <x:v>45</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="AG6" s="5" t="s">
-        <x:v>56</x:v>
+        <x:v>58</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:33" customFormat="1" ht="280" customHeight="1" x14ac:dyDescent="0.35">
       <x:c r="A7" s="7" t="s">
-        <x:v>78</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="B7" s="2" t="s">
-        <x:v>79</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="C7" s="1" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="D7" s="2" t="s">
-        <x:v>80</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="E7" s="1" t="s">
         <x:v>36</x:v>
@@ -1601,13 +1607,13 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="J7" s="1" t="s">
-        <x:v>81</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="K7" s="1" t="s">
-        <x:v>82</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="L7" s="1" t="s">
-        <x:v>83</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="M7" s="1" t="s"/>
       <x:c r="N7" s="1" t="s"/>
@@ -1643,24 +1649,24 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="AF7" s="1" t="s">
-        <x:v>45</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="AG7" s="5" t="s">
-        <x:v>56</x:v>
+        <x:v>58</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:33" customFormat="1" ht="294" customHeight="1" x14ac:dyDescent="0.35">
       <x:c r="A8" s="7" t="s">
-        <x:v>84</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="B8" s="2" t="s">
-        <x:v>85</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="D8" s="2" t="s">
-        <x:v>86</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="E8" s="1" t="s">
         <x:v>36</x:v>
@@ -1678,13 +1684,13 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="J8" s="1" t="s">
-        <x:v>87</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="K8" s="1" t="s">
-        <x:v>88</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="L8" s="1" t="s">
-        <x:v>89</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="M8" s="1" t="s"/>
       <x:c r="N8" s="1" t="s"/>
@@ -1720,24 +1726,24 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="AF8" s="1" t="s">
-        <x:v>45</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="AG8" s="5" t="s">
-        <x:v>90</x:v>
+        <x:v>92</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:33" customFormat="1" ht="294" customHeight="1" x14ac:dyDescent="0.35">
       <x:c r="A9" s="7" t="s">
-        <x:v>91</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="B9" s="2" t="s">
-        <x:v>92</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="C9" s="1" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="D9" s="2" t="s">
-        <x:v>93</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="E9" s="1" t="s">
         <x:v>36</x:v>
@@ -1755,13 +1761,13 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="J9" s="1" t="s">
-        <x:v>94</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="K9" s="1" t="s">
-        <x:v>95</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="L9" s="1" t="s">
-        <x:v>96</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="M9" s="1" t="s"/>
       <x:c r="N9" s="1" t="s"/>
@@ -1797,10 +1803,10 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="AF9" s="1" t="s">
-        <x:v>45</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="AG9" s="5" t="s">
-        <x:v>97</x:v>
+        <x:v>99</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:33" customFormat="1" ht="280" customHeight="1" x14ac:dyDescent="0.35">
@@ -1808,7 +1814,7 @@
         <x:v>33</x:v>
       </x:c>
       <x:c r="B18" s="2" t="s">
-        <x:v>98</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="C18" s="1" t="n">
         <x:v>1</x:v>
@@ -1886,10 +1892,10 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="AF18" s="1" t="s">
-        <x:v>45</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="AG18" s="5" t="s">
-        <x:v>56</x:v>
+        <x:v>58</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:33" customFormat="1" ht="280" customHeight="1" x14ac:dyDescent="0.35">
@@ -1897,7 +1903,7 @@
         <x:v>33</x:v>
       </x:c>
       <x:c r="B19" s="2" t="s">
-        <x:v>99</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="C19" s="1" t="n">
         <x:v>1</x:v>
@@ -1975,10 +1981,10 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="AF19" s="1" t="s">
-        <x:v>45</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="AG19" s="5" t="s">
-        <x:v>56</x:v>
+        <x:v>58</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:33" customFormat="1" ht="280" customHeight="1" x14ac:dyDescent="0.35">
@@ -1986,7 +1992,7 @@
         <x:v>33</x:v>
       </x:c>
       <x:c r="B20" s="2" t="s">
-        <x:v>100</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="C20" s="1" t="n">
         <x:v>1</x:v>
@@ -2064,10 +2070,10 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="AF20" s="1" t="s">
-        <x:v>45</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="AG20" s="5" t="s">
-        <x:v>56</x:v>
+        <x:v>58</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
